--- a/data/4/20230604-a1r-nc-session4-i_transcript.xlsx
+++ b/data/4/20230604-a1r-nc-session4-i_transcript.xlsx
@@ -1,441 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 4 NC/06:03 /06:03 excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9E6C4E-CC31-8B4A-ADE6-75680C4E1774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230604-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="127">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"10:01"</t>
-  </si>
-  <si>
-    <t>I kind of like the idea of having a certain amount that each political candidate can have the spend, you know, and instead of what if people want to make donations, I think it should be put into a pool and maybe divide it up between all the candidates. And I think people should know</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> where the money comes from.</t>
-  </si>
-  <si>
-    <t>"10:31"</t>
-  </si>
-  <si>
-    <t>I agree with greater disclosure whether we all that money goes into a centrally managed pot as described or I'm not in favor of more money going into politics, right? Let's make it less of a business and more of a Civic activity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I'm not in favor of foreign propaganda controlling or contributing to elections and not in favor of</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Super Pacs. So that's an issue, right? If it has to be a constitutional amendment or a law, the legal issue. I'm not sure what the right answer is, but what we're doing is getting worse so we had to do something.</t>
-  </si>
-  <si>
-    <t>"11:13"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree. I believe closing the loopholes and keeping any kind of foreign entities, out of our campaigns at all costs is really important at this point.</t>
-  </si>
-  <si>
-    <t>"11:26"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree with you AJ.</t>
-  </si>
-  <si>
-    <t>"11:29"</t>
-  </si>
-  <si>
-    <t>I guess I would be against the substantial raises on the contributions. I think that most Americans can't afford anywhere from 3302 forty-one, thousand dollars a year and I feel like there are a lot of other countries that have examples of people who run for office, having a limited number of funds that they can use towards their campaign. I think in,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> England, all persons, get the same amount of money, regardless of party or affiliation. So I think, like JW said, The more money we can get out of Politics. The better.</t>
-  </si>
-  <si>
-    <t>"12:17"</t>
-  </si>
-  <si>
-    <t>I also like the fact that everyone should have an equal amount of funding to keep it level and equal across the boards. So that</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Whatever one does, the other one can do and nobody is out there having the opportunity to have a bigger broader picture than the other person. So the I agree that it needs to be on a Level Playing Field and everybody have the same amount of Sunday in order to have their campaign run.</t>
-  </si>
-  <si>
-    <t>"15:19"</t>
-  </si>
-  <si>
-    <t>So if we still allow acts to contribute funds to elections that, I think they have to disclose all our donors over whatever, the individual amount is, if the individual amount is 200, then packs have to disclose everybody equivalent to that. So it's they don't get to hide their money at the five thousand dollar level at the 10,000 dollar almost like that. If it's 200, then it's 200 for everybody. Regardless of the number of people you have that you're collecting funds for. I think all the way,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> would prefer to again, get more money out rather than</t>
-  </si>
-  <si>
-    <t>"16:00"</t>
-  </si>
-  <si>
-    <t>I agree. I really don't think that having things like the men, democracy, vouchers and matching small contributions. From the public fund will help. If packs are still able to give a vast amount of money without having to disclose it, and even if they were able to disclose it, a lot of small contributions, may still never match a significantly large contribution from one pack. So I am in support of using</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> public funds to kind of standardize the amount of money that we as people can donate to elections. I think that would help too. Like we mentioned earlier, make things equal for all people who are running for office.</t>
-  </si>
-  <si>
-    <t>"16:45"</t>
-  </si>
-  <si>
-    <t>Can he be honest rather than, if it's a public election, I'd rather have the money go and do a public election account and then it's doled out peanut butter. Spreaders, everybody gets a trophy size pile to all the candidates for that office. So you can contribute to, you know, the federal election for presidency, all the candidates for president, get the same amount of money based on the amount of money that gets put in that pot, but if you're a pack, you don't get to give it just your candidate to have.</t>
-  </si>
-  <si>
-    <t>As to all go into a centrally managed fund. So you can put 10 million in there if you're a pack. But guess what? It gets told out evenly across all the candidates rather than 10 million. Just for your candidate, suck it up.</t>
-  </si>
-  <si>
-    <t>"17:26"</t>
-  </si>
-  <si>
-    <t>Question, can there be stricter and stricter regulations on the big packs?</t>
-  </si>
-  <si>
-    <t>"17:38"</t>
-  </si>
-  <si>
-    <t>I think that would be a good idea to kind of put a cap on it.</t>
-  </si>
-  <si>
-    <t>"17:43"</t>
-  </si>
-  <si>
-    <t>I guess the concern is who's going to be the regulator of the packs? Is it going to be Congress, who can be supported by the packs? Is it going to be the president, whose political party can be supported by the packs? Or is it going to be the Supreme Court? That was the purpose that were the people who allowed citizens united to happen in the first place. So that's where the challenge is. We don't know, who'd be responsible for regulating it because the existence of it,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Came from the people who benefit from it. So that's that's the challenge there. So, at this point, it's better to just completely remove it because we can't be, we can't really trust someone in politics too.</t>
-  </si>
-  <si>
-    <t>"18:30"</t>
-  </si>
-  <si>
-    <t>Bingo, that's the problem.</t>
-  </si>
-  <si>
-    <t>"18:35"</t>
-  </si>
-  <si>
-    <t>Yeah, either remove it or like as they said, like more transparency, show the top donors because with that, you can at least know like who they're supporting and who they're getting money from. So we can make a better educated vote.</t>
-  </si>
-  <si>
-    <t>"20:02"</t>
-  </si>
-  <si>
-    <t>Yeah, we do have those independent make drawbar maps in California and I don't see any complaining out here. Everybody seem to be pretty happy.</t>
-  </si>
-  <si>
-    <t>"20:13"</t>
-  </si>
-  <si>
-    <t>My question on redistricting is this y re District.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> My question to the panel.</t>
-  </si>
-  <si>
-    <t>"20:25"</t>
-  </si>
-  <si>
-    <t>I-i'm, just wanted to say that I think it would be a very time-consuming and expensive and confusing for people to read district. And I don't have an answer yet for your question. Stan. Someone passed that on</t>
-  </si>
-  <si>
-    <t>"20:41"</t>
-  </si>
-  <si>
-    <t>If I'm if I'm not mistaken I think we District based on population changes. So if there's a ton of people that move into a new area because there's a new industry there then and the number of Representatives that should represent that population should increase to match the population. If there's a ton of people who move out, then their representation normally the creases to. So I think that's always been the reason why redistricting happens.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> So the problem is is that right now people who are in political power, are the people who are drawing the districts, and they tend to draw the districts in a way that helps them to get more votes based on who's registered in their party.</t>
-  </si>
-  <si>
-    <t>"21:33"</t>
-  </si>
-  <si>
-    <t>My next question on that D is who really decides?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> At the end of the day.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> When redistricting takes place, or I guess I would say if there were any other reasons for redistricting, redistricting to, I guess assist somebody in winning a campaign or because it's your decision to say, well, we have more African-Americans that moved in or more Caucasians that moved in or something on that Spectrum. Whoo-hoo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Really makes a decision on that.</t>
-  </si>
-  <si>
-    <t>"22:16"</t>
-  </si>
-  <si>
-    <t>I can speak a little bit for Florida. I don't know how the decision is made. I know that the governor has the right to call for redistricting in the State of Florida. I don't know if that's a constitutional right or something, I mean, a state constitutional, right? Or if that's something that he just gets, he begets power to do that. I don't know. But I know that there was a major redistricting change that happened between</t>
-  </si>
-  <si>
-    <t>2020 and 2022, where the current Florida, Governor gained a significant number of districts because of redrawn, you know, redlining and mapping out.</t>
-  </si>
-  <si>
-    <t>"23:02"</t>
-  </si>
-  <si>
-    <t>Yeah, that's going on right now, in Texas, we desperately need independent. Redistricting. Our current Administration is doing everything. They can to bend the rules and try to just move more voters to their side, and it's it's terrible.</t>
-  </si>
-  <si>
-    <t>"23:34"</t>
-  </si>
-  <si>
-    <t>So I was doing a little research on the side and it appears that the Federal Election Commission is mostly worried about campaign Finance so they don't any review policies but they don't review States redistricting that I could find in there and it would seem like if you're going to create Independence in ones by the state, they needed somebody that audit, those guys to make sure they're not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Doing the same thing over again, right? So it's not just a different song but the same band playing. So it would seem like there's a structure available to supervise what what redistricting could look like if they were independent panels, that were managed by the state, but reviewed by the government, or the, you know, the external agency to the government, called the FEC. So, so it seems</t>
-  </si>
-  <si>
-    <t>"24:27"</t>
-  </si>
-  <si>
-    <t>Yeah, I'm interested to see just how even if state governments wanted to go with something independent and non-partisan how they're able to actually measure that. Like what what parameters are they using to decide? Whether or not someone has a political agenda or private company. Doesn't already get funding from certain areas or doesn't commit funding to certain political parties, especially because you know that</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nation is hidden right now. So how do we actually know who's independent and who's non-partisan? That's another thing that they would have to try to figure out before selecting independent companies to do that.</t>
-  </si>
-  <si>
-    <t>"26:14"</t>
-  </si>
-  <si>
-    <t>I don't know about the sixteen-year-olds, letting them vote. I mean, even in the school district, I feel like some of them could be intimidated or course, you know, like, they can be taken advantage of and I just don't think it's a good.</t>
-  </si>
-  <si>
-    <t>"26:32"</t>
-  </si>
-  <si>
-    <t>Yeah. You know, I'm all for this third party stuff but you know it seems like no matter what we do for a third party they rarely ever win any</t>
-  </si>
-  <si>
-    <t>"26:43"</t>
-  </si>
-  <si>
-    <t>Yeah, with the third parties, I think it would be good for them to end up on the ballot. But if like we talked about before, they don't have the funding to really Market themselves or teach us about what they're they're offering as a candidate, they'll still end up in the same situation where they won't have any name recognition. So if we can also help them not only get on the ballot but also get the funding to run against the big guys. Then that will</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Be great. I am all for making federal election national holiday. I'm also for the, the small fines, I think, you know, we all have to report to jury duty and we get fined for that. So we should all have to report for elections.</t>
-  </si>
-  <si>
-    <t>"27:28"</t>
-  </si>
-  <si>
-    <t>So I think for third parties and independents, I don't think it should be easier for them to meet the requirement. The requirement should be the requirement that you be the same for everyone. However, I believe that more third parties and Independence should be on the tickets. That's just a matter of people think they have to be to party to win federal holiday. Yes, Civic obligation. Yes, like, your do just like they said, but you, when you check the thing, I can I'm not voting right? That can be a legitimate reason.</t>
-  </si>
-  <si>
-    <t>Not to vote, right? But you have to reply that you're not you're not going to do it instead of come up with a reason like we do at jury duty and then absolutely not on 16 year olds. I'm a high school teacher. So know.</t>
-  </si>
-  <si>
-    <t>"28:14"</t>
-  </si>
-  <si>
-    <t>It was an interesting idea for the 16 year olds to vote. You know, I'm, we give them the right to get behind the wheel and operate 23, ton vehicle and potentially put their lives in other people's lives into, you know, dangerous situations. We had talked like yesterday about civic, education, and students not really being able to grasp understanding the election process. And</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And I think this is a good way for them to participate in that process, especially because they're voting on something that specifically relates to them and helps them to understand what they'll be doing at a national level, when they're in.</t>
-  </si>
-  <si>
-    <t>"28:59"</t>
-  </si>
-  <si>
-    <t>I think that process, you know, maybe they should have you know a class on that in school. I still don't sixteen-year-old I just don't think so. And I think speaking of driving I really feel like the driving age should be raised and but that's just my opinion but I just don't think the 16 year olds they have so much going on in their lives that you know and they're usually all about themselves and they may not even</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Really care about the vote.</t>
-  </si>
-  <si>
-    <t>"29:30"</t>
-  </si>
-  <si>
-    <t>With regards to 16 year olds, I'm all for mock elections, in mock voting and mock things, right? So they need to understand the process, so they can be trained, how to do it by the time, they're 18 or when they're 18. I agree, completely, but having them actually vote in School Board elections, or on better would be them participating in school board procedures, right? So, observe the school boards as part of their class and provide comment as part of their class,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Class to engage in local politics would be probably more effective way to train them with it. What it means to have a voice as opposed to them, banding together, to talk to their, you know, electing their friends parents, or whatever. It is that they're trying to do.</t>
-  </si>
-  <si>
-    <t>"30:16"</t>
-  </si>
-  <si>
-    <t>"30:17"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree. That's a great idea. Thanks to teachers.</t>
-  </si>
-  <si>
-    <t>"35:06"</t>
-  </si>
-  <si>
-    <t>I think that's a great question. And I think the way it's worded, sounds good, it gets to the point.</t>
-  </si>
-  <si>
-    <t>"35:21"</t>
-  </si>
-  <si>
-    <t>The only thing I feel like the answer to this is Congress. I feel like only Congress can make federal holidays. I'm trying to figure out if we should add something about.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> What would be the, what would be? The enticement will be the reason for doing it because I feel like it's been brought up before so why has congress not done it? And how would we be able to encourage them to do this? Like what would be the takeaway?</t>
-  </si>
-  <si>
-    <t>"36:02"</t>
-  </si>
-  <si>
-    <t>I agree. It needs something else. But I wasn't sure how to quite word it, and, I guess, for me, it's about, you know, it sounds great to have an election day is a holiday. I would love to have it but again, how we make how Congress can enforce everybody. You know, there's so many other holidays that it's like, you know, we have them, we observe them, but people really don't recognize them.</t>
-  </si>
-  <si>
-    <t>"36:32"</t>
-  </si>
-  <si>
-    <t>A plane, that's a good point because I was, I was just thinking about the fact that we have federal holidays, like, Memorial Day and Labor Day, which we can force Banks to be close. But stores can still be open and require their employees to work. That's a good point.</t>
-  </si>
-  <si>
-    <t>"36:49"</t>
-  </si>
-  <si>
-    <t>And similarly in this case, a big chunk of the federal government would probably still need to work, right? Because they're part of that process in managing the data and election employees and stuff like that, right? They're all part of the process. So while it's a would be a Federal holiday, they would still work to write. So it's not not as clean as one might hope.</t>
-  </si>
-  <si>
-    <t>"37:10"</t>
-  </si>
-  <si>
-    <t>They could get a comp days or over time.</t>
-  </si>
-  <si>
-    <t>"37:15"</t>
-  </si>
-  <si>
-    <t>Yep, for sure.</t>
-  </si>
-  <si>
-    <t>"37:51"</t>
-  </si>
-  <si>
-    <t>So I would look at adding a the idea behind the FEC managing a central fund Source, right? So, all the money goes into there and then they gets managed by them or somebody else for all campaign contributions at the federal level. So I'll drop that in and see what you think of them revised wording. I recommend.</t>
-  </si>
-  <si>
-    <t>"38:29"</t>
-  </si>
-  <si>
-    <t>I like it.</t>
-  </si>
-  <si>
-    <t>"38:36"</t>
-  </si>
-  <si>
-    <t>Yes, that makes sense and is very clear.</t>
-  </si>
-  <si>
-    <t>"38:59"</t>
-  </si>
-  <si>
-    <t>Yeah, I don't know that. That's possible. So you just got to pick with the people. You trust the most. I guess. You can't really judge somebody's politics if they don't disclose</t>
-  </si>
-  <si>
-    <t>"39:25"</t>
-  </si>
-  <si>
-    <t>maybe ask who also who, and how</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -511,47 +119,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -620,14 +228,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1702,932 +1302,1141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS76"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="1" ht="20.25" customHeight="1" s="10">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="10">
+      <c r="A2" s="3" t="n">
         <v>48482</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>"10:01"</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>I kind of like the idea of having a certain amount that each political candidate can have the spend, you know, and instead of what if people want to make donations, I think it should be put into a pool and maybe divide it up between all the candidates. And I think people should know</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="10">
+      <c r="A3" s="3" t="n">
         <v>48482</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>"10:01"</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> where the money comes from.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="10">
+      <c r="A4" s="3" t="n">
         <v>48329</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>"10:31"</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>I agree with greater disclosure whether we all that money goes into a centrally managed pot as described or I'm not in favor of more money going into politics, right? Let's make it less of a business and more of a Civic activity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="10">
+      <c r="A5" s="3" t="n">
         <v>48329</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>"10:31"</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I'm not in favor of foreign propaganda controlling or contributing to elections and not in favor of</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="10">
+      <c r="A6" s="3" t="n">
         <v>48329</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>"10:31"</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Super Pacs. So that's an issue, right? If it has to be a constitutional amendment or a law, the legal issue. I'm not sure what the right answer is, but what we're doing is getting worse so we had to do something.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="10">
+      <c r="A7" s="3" t="n">
         <v>9926</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>"11:13"</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I agree. I believe closing the loopholes and keeping any kind of foreign entities, out of our campaigns at all costs is really important at this point.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="10">
+      <c r="A8" s="3" t="n">
         <v>48311</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>"11:26"</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I agree with you AJ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="10">
+      <c r="A9" s="3" t="n">
         <v>48400</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>"11:29"</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="10">
+      <c r="A10" s="3" t="n">
         <v>48400</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>"11:29"</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>I guess I would be against the substantial raises on the contributions. I think that most Americans can't afford anywhere from 3302 forty-one, thousand dollars a year and I feel like there are a lot of other countries that have examples of people who run for office, having a limited number of funds that they can use towards their campaign. I think in,</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="10">
+      <c r="A11" s="3" t="n">
         <v>48400</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>"11:29"</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> England, all persons, get the same amount of money, regardless of party or affiliation. So I think, like JW said, The more money we can get out of Politics. The better.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="10">
+      <c r="A12" s="3" t="n">
         <v>48428</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>"12:17"</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>I also like the fact that everyone should have an equal amount of funding to keep it level and equal across the boards. So that</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="10">
+      <c r="A13" s="3" t="n">
         <v>48428</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>"12:17"</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Whatever one does, the other one can do and nobody is out there having the opportunity to have a bigger broader picture than the other person. So the I agree that it needs to be on a Level Playing Field and everybody have the same amount of Sunday in order to have their campaign run.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="10">
+      <c r="A14" s="3" t="n">
         <v>48329</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>"15:19"</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n"/>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="10">
+      <c r="A15" s="3" t="n">
         <v>48329</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>"15:19"</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>So if we still allow acts to contribute funds to elections that, I think they have to disclose all our donors over whatever, the individual amount is, if the individual amount is 200, then packs have to disclose everybody equivalent to that. So it's they don't get to hide their money at the five thousand dollar level at the 10,000 dollar almost like that. If it's 200, then it's 200 for everybody. Regardless of the number of people you have that you're collecting funds for. I think all the way,</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="10">
+      <c r="A16" s="3" t="n">
         <v>48329</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>"15:19"</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> would prefer to again, get more money out rather than</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="10">
+      <c r="A17" s="3" t="n">
         <v>48400</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>"16:00"</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>I agree. I really don't think that having things like the men, democracy, vouchers and matching small contributions. From the public fund will help. If packs are still able to give a vast amount of money without having to disclose it, and even if they were able to disclose it, a lot of small contributions, may still never match a significantly large contribution from one pack. So I am in support of using</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="10">
+      <c r="A18" s="3" t="n">
         <v>48400</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>"16:00"</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> public funds to kind of standardize the amount of money that we as people can donate to elections. I think that would help too. Like we mentioned earlier, make things equal for all people who are running for office.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="10">
+      <c r="A19" s="3" t="n">
         <v>48329</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>"16:45"</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Can he be honest rather than, if it's a public election, I'd rather have the money go and do a public election account and then it's doled out peanut butter. Spreaders, everybody gets a trophy size pile to all the candidates for that office. So you can contribute to, you know, the federal election for presidency, all the candidates for president, get the same amount of money based on the amount of money that gets put in that pot, but if you're a pack, you don't get to give it just your candidate to have.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="10">
+      <c r="A20" s="3" t="n">
         <v>48329</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>"16:45"</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>As to all go into a centrally managed fund. So you can put 10 million in there if you're a pack. But guess what? It gets told out evenly across all the candidates rather than 10 million. Just for your candidate, suck it up.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="10">
+      <c r="A21" s="3" t="n">
         <v>48428</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>"17:26"</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Question, can there be stricter and stricter regulations on the big packs?</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="10">
+      <c r="A22" s="3" t="n">
         <v>48482</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>"17:38"</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>I think that would be a good idea to kind of put a cap on it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="10">
+      <c r="A23" s="3" t="n">
         <v>48400</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>"17:43"</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>I guess the concern is who's going to be the regulator of the packs? Is it going to be Congress, who can be supported by the packs? Is it going to be the president, whose political party can be supported by the packs? Or is it going to be the Supreme Court? That was the purpose that were the people who allowed citizens united to happen in the first place. So that's where the challenge is. We don't know, who'd be responsible for regulating it because the existence of it,</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="10">
+      <c r="A24" s="3" t="n">
         <v>48400</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>"17:43"</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Came from the people who benefit from it. So that's that's the challenge there. So, at this point, it's better to just completely remove it because we can't be, we can't really trust someone in politics too.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="10">
+      <c r="A25" s="3" t="n">
         <v>9926</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>"18:30"</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Bingo, that's the problem.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="10">
+      <c r="A26" s="3" t="n">
         <v>10049</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>"18:35"</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, either remove it or like as they said, like more transparency, show the top donors because with that, you can at least know like who they're supporting and who they're getting money from. So we can make a better educated vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="10">
+      <c r="A27" s="3" t="n">
         <v>48311</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>"20:02"</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, we do have those independent make drawbar maps in California and I don't see any complaining out here. Everybody seem to be pretty happy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="10">
+      <c r="A28" s="3" t="n">
         <v>48428</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>"20:13"</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="n"/>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="10">
+      <c r="A29" s="3" t="n">
         <v>48428</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>"20:13"</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>My question on redistricting is this y re District.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="10">
+      <c r="A30" s="3" t="n">
         <v>48428</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>"20:13"</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> My question to the panel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="10">
+      <c r="A31" s="3" t="n">
         <v>48482</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>"20:25"</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>I-i'm, just wanted to say that I think it would be a very time-consuming and expensive and confusing for people to read district. And I don't have an answer yet for your question. Stan. Someone passed that on</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="10">
+      <c r="A32" s="3" t="n">
         <v>48400</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>"20:41"</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>If I'm if I'm not mistaken I think we District based on population changes. So if there's a ton of people that move into a new area because there's a new industry there then and the number of Representatives that should represent that population should increase to match the population. If there's a ton of people who move out, then their representation normally the creases to. So I think that's always been the reason why redistricting happens.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="10">
+      <c r="A33" s="3" t="n">
         <v>48400</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>"20:41"</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> So the problem is is that right now people who are in political power, are the people who are drawing the districts, and they tend to draw the districts in a way that helps them to get more votes based on who's registered in their party.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="10">
+      <c r="A34" s="3" t="n">
         <v>48428</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>"21:33"</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n"/>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="10">
+      <c r="A35" s="3" t="n">
         <v>48428</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>"21:33"</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>My next question on that D is who really decides?</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="10">
+      <c r="A36" s="3" t="n">
         <v>48428</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>"21:33"</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> At the end of the day.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="10">
+      <c r="A37" s="3" t="n">
         <v>48428</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>"21:33"</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> When redistricting takes place, or I guess I would say if there were any other reasons for redistricting, redistricting to, I guess assist somebody in winning a campaign or because it's your decision to say, well, we have more African-Americans that moved in or more Caucasians that moved in or something on that Spectrum. Whoo-hoo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="10">
+      <c r="A38" s="3" t="n">
         <v>48428</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>"21:33"</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Really makes a decision on that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="10">
+      <c r="A39" s="3" t="n">
         <v>48400</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>"22:16"</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>I can speak a little bit for Florida. I don't know how the decision is made. I know that the governor has the right to call for redistricting in the State of Florida. I don't know if that's a constitutional right or something, I mean, a state constitutional, right? Or if that's something that he just gets, he begets power to do that. I don't know. But I know that there was a major redistricting change that happened between</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="10">
+      <c r="A40" s="3" t="n">
         <v>48400</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>"22:16"</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>2020 and 2022, where the current Florida, Governor gained a significant number of districts because of redrawn, you know, redlining and mapping out.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="10">
+      <c r="A41" s="3" t="n">
         <v>9926</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>"23:02"</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, that's going on right now, in Texas, we desperately need independent. Redistricting. Our current Administration is doing everything. They can to bend the rules and try to just move more voters to their side, and it's it's terrible.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="10">
+      <c r="A42" s="3" t="n">
         <v>48329</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>"23:34"</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>So I was doing a little research on the side and it appears that the Federal Election Commission is mostly worried about campaign Finance so they don't any review policies but they don't review States redistricting that I could find in there and it would seem like if you're going to create Independence in ones by the state, they needed somebody that audit, those guys to make sure they're not.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="10">
+      <c r="A43" s="3" t="n">
         <v>48329</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>"23:34"</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Doing the same thing over again, right? So it's not just a different song but the same band playing. So it would seem like there's a structure available to supervise what what redistricting could look like if they were independent panels, that were managed by the state, but reviewed by the government, or the, you know, the external agency to the government, called the FEC. So, so it seems</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="10">
+      <c r="A44" s="3" t="n">
         <v>48400</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>"24:27"</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I'm interested to see just how even if state governments wanted to go with something independent and non-partisan how they're able to actually measure that. Like what what parameters are they using to decide? Whether or not someone has a political agenda or private company. Doesn't already get funding from certain areas or doesn't commit funding to certain political parties, especially because you know that</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="10">
+      <c r="A45" s="3" t="n">
         <v>48400</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>"24:27"</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nation is hidden right now. So how do we actually know who's independent and who's non-partisan? That's another thing that they would have to try to figure out before selecting independent companies to do that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="10">
+      <c r="A46" s="3" t="n">
         <v>48482</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>"26:14"</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>I don't know about the sixteen-year-olds, letting them vote. I mean, even in the school district, I feel like some of them could be intimidated or course, you know, like, they can be taken advantage of and I just don't think it's a good.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="10">
+      <c r="A47" s="3" t="n">
         <v>48311</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>"26:32"</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>Yeah. You know, I'm all for this third party stuff but you know it seems like no matter what we do for a third party they rarely ever win any</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="10">
+      <c r="A48" s="3" t="n">
         <v>48400</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>"26:43"</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, with the third parties, I think it would be good for them to end up on the ballot. But if like we talked about before, they don't have the funding to really Market themselves or teach us about what they're they're offering as a candidate, they'll still end up in the same situation where they won't have any name recognition. So if we can also help them not only get on the ballot but also get the funding to run against the big guys. Then that will</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="10">
+      <c r="A49" s="3" t="n">
         <v>48400</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>"26:43"</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Be great. I am all for making federal election national holiday. I'm also for the, the small fines, I think, you know, we all have to report to jury duty and we get fined for that. So we should all have to report for elections.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="10">
+      <c r="A50" s="3" t="n">
         <v>48329</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>"27:28"</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>So I think for third parties and independents, I don't think it should be easier for them to meet the requirement. The requirement should be the requirement that you be the same for everyone. However, I believe that more third parties and Independence should be on the tickets. That's just a matter of people think they have to be to party to win federal holiday. Yes, Civic obligation. Yes, like, your do just like they said, but you, when you check the thing, I can I'm not voting right? That can be a legitimate reason.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="10">
+      <c r="A51" s="3" t="n">
         <v>48329</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>"27:28"</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>Not to vote, right? But you have to reply that you're not you're not going to do it instead of come up with a reason like we do at jury duty and then absolutely not on 16 year olds. I'm a high school teacher. So know.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="10">
+      <c r="A52" s="3" t="n">
         <v>48400</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>"28:14"</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>It was an interesting idea for the 16 year olds to vote. You know, I'm, we give them the right to get behind the wheel and operate 23, ton vehicle and potentially put their lives in other people's lives into, you know, dangerous situations. We had talked like yesterday about civic, education, and students not really being able to grasp understanding the election process. And</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="10">
+      <c r="A53" s="3" t="n">
         <v>48400</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>"28:14"</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And I think this is a good way for them to participate in that process, especially because they're voting on something that specifically relates to them and helps them to understand what they'll be doing at a national level, when they're in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="10">
+      <c r="A54" s="3" t="n">
         <v>48482</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>"28:59"</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>I think that process, you know, maybe they should have you know a class on that in school. I still don't sixteen-year-old I just don't think so. And I think speaking of driving I really feel like the driving age should be raised and but that's just my opinion but I just don't think the 16 year olds they have so much going on in their lives that you know and they're usually all about themselves and they may not even</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="10">
+      <c r="A55" s="3" t="n">
         <v>48482</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>"28:59"</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Really care about the vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="10">
+      <c r="A56" s="3" t="n">
         <v>48329</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>"29:30"</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>With regards to 16 year olds, I'm all for mock elections, in mock voting and mock things, right? So they need to understand the process, so they can be trained, how to do it by the time, they're 18 or when they're 18. I agree, completely, but having them actually vote in School Board elections, or on better would be them participating in school board procedures, right? So, observe the school boards as part of their class and provide comment as part of their class,</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="10">
+      <c r="A57" s="3" t="n">
         <v>48329</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>"29:30"</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Class to engage in local politics would be probably more effective way to train them with it. What it means to have a voice as opposed to them, banding together, to talk to their, you know, electing their friends parents, or whatever. It is that they're trying to do.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1" s="10">
+      <c r="A58" s="3" t="n">
         <v>48329</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="5"/>
-    </row>
-    <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3">
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>"30:16"</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="n"/>
+    </row>
+    <row r="59" ht="20" customHeight="1" s="10">
+      <c r="A59" s="3" t="n">
         <v>9926</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3">
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>"30:17"</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I agree. That's a great idea. Thanks to teachers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1" s="10">
+      <c r="A60" s="3" t="n">
         <v>48482</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3">
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>"35:06"</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>I think that's a great question. And I think the way it's worded, sounds good, it gets to the point.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="20" customHeight="1" s="10">
+      <c r="A61" s="3" t="n">
         <v>48400</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="3">
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>"35:21"</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>The only thing I feel like the answer to this is Congress. I feel like only Congress can make federal holidays. I'm trying to figure out if we should add something about.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1" s="10">
+      <c r="A62" s="3" t="n">
         <v>48400</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3">
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>"35:21"</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> What would be the, what would be? The enticement will be the reason for doing it because I feel like it's been brought up before so why has congress not done it? And how would we be able to encourage them to do this? Like what would be the takeaway?</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1" s="10">
+      <c r="A63" s="3" t="n">
         <v>48459</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="3">
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>"36:02"</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t>I agree. It needs something else. But I wasn't sure how to quite word it, and, I guess, for me, it's about, you know, it sounds great to have an election day is a holiday. I would love to have it but again, how we make how Congress can enforce everybody. You know, there's so many other holidays that it's like, you know, we have them, we observe them, but people really don't recognize them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1" s="10">
+      <c r="A64" s="3" t="n">
         <v>48459</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C64" s="5"/>
-    </row>
-    <row r="65" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="3">
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>"36:02"</t>
+        </is>
+      </c>
+      <c r="C64" s="5" t="n"/>
+    </row>
+    <row r="65" ht="20" customHeight="1" s="10">
+      <c r="A65" s="3" t="n">
         <v>48459</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" s="5"/>
-    </row>
-    <row r="66" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="3">
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>"36:02"</t>
+        </is>
+      </c>
+      <c r="C65" s="5" t="n"/>
+    </row>
+    <row r="66" ht="20" customHeight="1" s="10">
+      <c r="A66" s="3" t="n">
         <v>48400</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="3">
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>"36:32"</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t>A plane, that's a good point because I was, I was just thinking about the fact that we have federal holidays, like, Memorial Day and Labor Day, which we can force Banks to be close. But stores can still be open and require their employees to work. That's a good point.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="20" customHeight="1" s="10">
+      <c r="A67" s="3" t="n">
         <v>48329</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="3">
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>"36:49"</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t>And similarly in this case, a big chunk of the federal government would probably still need to work, right? Because they're part of that process in managing the data and election employees and stuff like that, right? They're all part of the process. So while it's a would be a Federal holiday, they would still work to write. So it's not not as clean as one might hope.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1" s="10">
+      <c r="A68" s="3" t="n">
         <v>48482</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="3">
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>"37:10"</t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t>They could get a comp days or over time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="1" s="10">
+      <c r="A69" s="3" t="n">
         <v>48329</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="3">
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>"37:15"</t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t>Yep, for sure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="20" customHeight="1" s="10">
+      <c r="A70" s="3" t="n">
         <v>48329</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="3">
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>"37:51"</t>
+        </is>
+      </c>
+      <c r="C70" s="4" t="inlineStr">
+        <is>
+          <t>So I would look at adding a the idea behind the FEC managing a central fund Source, right? So, all the money goes into there and then they gets managed by them or somebody else for all campaign contributions at the federal level. So I'll drop that in and see what you think of them revised wording. I recommend.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="20" customHeight="1" s="10">
+      <c r="A71" s="3" t="n">
         <v>48329</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C71" s="5"/>
-    </row>
-    <row r="72" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="3">
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>"37:51"</t>
+        </is>
+      </c>
+      <c r="C71" s="5" t="n"/>
+    </row>
+    <row r="72" ht="20" customHeight="1" s="10">
+      <c r="A72" s="3" t="n">
         <v>48329</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="3">
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>"37:51"</t>
+        </is>
+      </c>
+      <c r="C72" s="5" t="n"/>
+    </row>
+    <row r="73" ht="20" customHeight="1" s="10">
+      <c r="A73" s="3" t="n">
         <v>48400</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="3">
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>"38:29"</t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t>I like it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="20" customHeight="1" s="10">
+      <c r="A74" s="3" t="n">
         <v>48482</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="3">
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>"38:36"</t>
+        </is>
+      </c>
+      <c r="C74" s="4" t="inlineStr">
+        <is>
+          <t>Yes, that makes sense and is very clear.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="20" customHeight="1" s="10">
+      <c r="A75" s="3" t="n">
         <v>48311</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="3">
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t>"38:59"</t>
+        </is>
+      </c>
+      <c r="C75" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I don't know that. That's possible. So you just got to pick with the people. You trust the most. I guess. You can't really judge somebody's politics if they don't disclose</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="20" customHeight="1" s="10">
+      <c r="A76" s="3" t="n">
         <v>10049</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>110</v>
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>"39:25"</t>
+        </is>
+      </c>
+      <c r="C76" s="4" t="inlineStr">
+        <is>
+          <t>maybe ask who also who, and how</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52E9A22-DD09-EC47-9202-A3EE93B6F28E}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>